--- a/各月份各月红球超均值情况_超70.xlsx
+++ b/各月份各月红球超均值情况_超70.xlsx
@@ -649,7 +649,7 @@
         <v>81</v>
       </c>
       <c r="AE5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5">
         <v>100</v>

--- a/各月份各月红球超均值情况_超70.xlsx
+++ b/各月份各月红球超均值情况_超70.xlsx
@@ -628,10 +628,10 @@
         <v>4</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X5">
         <v>72</v>
@@ -640,7 +640,7 @@
         <v>95</v>
       </c>
       <c r="AB5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5">
         <v>73</v>
@@ -658,7 +658,7 @@
         <v>86</v>
       </c>
       <c r="AH5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AI5">
         <v>85</v>

--- a/各月份各月红球超均值情况_超70.xlsx
+++ b/各月份各月红球超均值情况_超70.xlsx
@@ -678,10 +678,10 @@
         <v>73</v>
       </c>
       <c r="V6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6">
         <v>72</v>
@@ -690,19 +690,19 @@
         <v>84</v>
       </c>
       <c r="AC6">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF6">
         <v>82</v>
       </c>
       <c r="AG6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AH6">
         <v>99</v>
@@ -711,7 +711,7 @@
         <v>82</v>
       </c>
       <c r="AJ6">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:36">

--- a/各月份各月红球超均值情况_超70.xlsx
+++ b/各月份各月红球超均值情况_超70.xlsx
@@ -674,15 +674,21 @@
       <c r="O6">
         <v>77</v>
       </c>
+      <c r="R6">
+        <v>71</v>
+      </c>
       <c r="T6">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6">
         <v>73</v>
       </c>
+      <c r="X6">
+        <v>71</v>
+      </c>
       <c r="AA6">
         <v>72</v>
       </c>
@@ -693,25 +699,25 @@
         <v>81</v>
       </c>
       <c r="AD6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE6">
         <v>105</v>
       </c>
       <c r="AF6">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6">
         <v>97</v>
       </c>
       <c r="AH6">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI6">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ6">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:36">

--- a/各月份各月红球超均值情况_超70.xlsx
+++ b/各月份各月红球超均值情况_超70.xlsx
@@ -674,6 +674,9 @@
       <c r="O6">
         <v>77</v>
       </c>
+      <c r="P6">
+        <v>71</v>
+      </c>
       <c r="R6">
         <v>71</v>
       </c>
@@ -681,7 +684,7 @@
         <v>75</v>
       </c>
       <c r="V6">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W6">
         <v>73</v>
@@ -689,8 +692,11 @@
       <c r="X6">
         <v>71</v>
       </c>
+      <c r="Y6">
+        <v>71</v>
+      </c>
       <c r="AA6">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6">
         <v>84</v>
@@ -708,16 +714,16 @@
         <v>83</v>
       </c>
       <c r="AG6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH6">
         <v>100</v>
       </c>
       <c r="AI6">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AJ6">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:36">

--- a/各月份各月红球超均值情况_超70.xlsx
+++ b/各月份各月红球超均值情况_超70.xlsx
@@ -683,6 +683,9 @@
       <c r="T6">
         <v>75</v>
       </c>
+      <c r="U6">
+        <v>71</v>
+      </c>
       <c r="V6">
         <v>79</v>
       </c>
@@ -730,11 +733,14 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="L7">
+        <v>71</v>
+      </c>
       <c r="U7">
         <v>75</v>
       </c>
       <c r="W7">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X7">
         <v>78</v>
@@ -749,10 +755,10 @@
         <v>80</v>
       </c>
       <c r="AE7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG7">
         <v>97</v>
@@ -764,7 +770,7 @@
         <v>93</v>
       </c>
       <c r="AJ7">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:36">

--- a/各月份各月红球超均值情况_超70.xlsx
+++ b/各月份各月红球超均值情况_超70.xlsx
@@ -740,13 +740,13 @@
         <v>75</v>
       </c>
       <c r="W7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X7">
         <v>78</v>
       </c>
       <c r="Y7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7">
         <v>81</v>
@@ -761,13 +761,13 @@
         <v>96</v>
       </c>
       <c r="AG7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ7">
         <v>90</v>
